--- a/diary/2017-3-9(H).xlsx
+++ b/diary/2017-3-9(H).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>P</t>
   </si>
@@ -125,12 +125,29 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +204,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -212,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +568,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,10 +696,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
